--- a/data/case1/12/cost_14.xlsx
+++ b/data/case1/12/cost_14.xlsx
@@ -56,20 +56,20 @@
   <dimension ref="A1:C1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>148.89492499567282</v>
+        <v>148.90775052551567</v>
       </c>
       <c r="B1" s="0">
-        <v>4.3803133224821211</v>
+        <v>4.7140732030366284</v>
       </c>
       <c r="C1" s="0">
-        <v>1.2898238747553816</v>
+        <v>0.70215264187866921</v>
       </c>
     </row>
   </sheetData>
